--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/10/seed4/result_data_RandomForest.xlsx
@@ -558,7 +558,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.593699999999997</v>
+        <v>6.278799999999997</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.582899999999998</v>
+        <v>6.359199999999999</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.794399999999989</v>
+        <v>9.628499999999988</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.523300000000003</v>
+        <v>6.389400000000003</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.464399999999992</v>
+        <v>5.477599999999993</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.503499999999999</v>
+        <v>5.074200000000002</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.542700000000002</v>
+        <v>5.420700000000004</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
